--- a/APM files/135583412/Book1.xlsx
+++ b/APM files/135583412/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135583412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB77CCB-4399-164B-81EB-94E82C952F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB395D6-2B69-B046-903A-301774BAD76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20840" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{D15602F2-0872-1D44-8C0A-4AE6F48C2C00}"/>
   </bookViews>
@@ -418,313 +418,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA3429A-D59F-5A44-B5D1-316D226C6684}">
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>98496071</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>98496071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>98496071</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>98496071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>99106466</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>99106466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>99106468</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>99106468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>99545727</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>99545727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>99545732</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>99545732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>99545740</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>99545740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>99545758</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>99545758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>99545764</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>99545764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>99545774</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>99545774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>99453380</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>99453380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>99545799</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>99545799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>99545802</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>99545802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>99545812</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>99545812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>99545816</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>99545816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>99545817</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>99545817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>99545823</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>99545823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>99545833</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>99545833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>99545838</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>99545838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>98496064</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>98496064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>99106471</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>99106471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>99106476</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>99106476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>98496067</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>98496067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>99545846</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>99545846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>99545852</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>99545852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>99545880</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>99545880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>99545883</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>99545883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>99545886</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>99545886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>99545934</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>99545934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>99545920</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>99545920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>99545924</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>99545924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>99545956</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>99545956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>99545976</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>99545976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>99545968</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>99545968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>99453517</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>99453517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>99545954</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>99545954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>99545950</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>99545950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>99453521</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>99453521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>99545946</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>99545946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>98496084</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>98496084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>98487676</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>98487676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>99939503</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>99939503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>99939506</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>99939506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>99939497</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>99939497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>99939498</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>99939498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>99939499</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>99939499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>99939495</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>99939495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>99939496</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>99939496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>99939493</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>99939493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>98496076</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <v>98496076</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>99939504</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <v>99939504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>99939501</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>99939501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>99939502</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>99939502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>98496079</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>98496079</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>98487708</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>98487708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>98496107</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <v>98496107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>99939494</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>99939494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>98853718</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>98853718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>98853894</v>
       </c>
+      <c r="C60" s="1">
+        <v>98853894</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APM files/135583412/Book1.xlsx
+++ b/APM files/135583412/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135583412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB395D6-2B69-B046-903A-301774BAD76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71285BD-31DD-8442-A6EE-416836651E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{D15602F2-0872-1D44-8C0A-4AE6F48C2C00}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{D15602F2-0872-1D44-8C0A-4AE6F48C2C00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA3429A-D59F-5A44-B5D1-316D226C6684}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="131" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,473 +435,355 @@
       <c r="A2" s="1">
         <v>98496071</v>
       </c>
-      <c r="C2" s="1">
-        <v>98496071</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>98496071</v>
       </c>
-      <c r="C3" s="1">
-        <v>98496071</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>99106466</v>
       </c>
-      <c r="C4" s="1">
-        <v>99106466</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>99106468</v>
       </c>
-      <c r="C5" s="1">
-        <v>99106468</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>99545727</v>
       </c>
-      <c r="C6" s="1">
-        <v>99545727</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>99545732</v>
       </c>
-      <c r="C7" s="1">
-        <v>99545732</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>99545740</v>
       </c>
-      <c r="C8" s="1">
-        <v>99545740</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>99545758</v>
       </c>
-      <c r="C9" s="1">
-        <v>99545758</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>99545764</v>
       </c>
-      <c r="C10" s="1">
-        <v>99545764</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>99545774</v>
       </c>
-      <c r="C11" s="1">
-        <v>99545774</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>99453380</v>
       </c>
-      <c r="C12" s="1">
-        <v>99453380</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>99545799</v>
       </c>
-      <c r="C13" s="1">
-        <v>99545799</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>99545802</v>
       </c>
-      <c r="C14" s="1">
-        <v>99545802</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>99545812</v>
       </c>
-      <c r="C15" s="1">
-        <v>99545812</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>99545816</v>
       </c>
-      <c r="C16" s="1">
-        <v>99545816</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>99545817</v>
       </c>
-      <c r="C17" s="1">
-        <v>99545817</v>
-      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>99545823</v>
       </c>
-      <c r="C18" s="1">
-        <v>99545823</v>
-      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>99545833</v>
       </c>
-      <c r="C19" s="1">
-        <v>99545833</v>
-      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>99545838</v>
       </c>
-      <c r="C20" s="1">
-        <v>99545838</v>
-      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>98496064</v>
       </c>
-      <c r="C21" s="1">
-        <v>98496064</v>
-      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>99106471</v>
       </c>
-      <c r="C22" s="1">
-        <v>99106471</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>99106476</v>
       </c>
-      <c r="C23" s="1">
-        <v>99106476</v>
-      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>98496067</v>
       </c>
-      <c r="C24" s="1">
-        <v>98496067</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>99545846</v>
       </c>
-      <c r="C25" s="1">
-        <v>99545846</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>99545852</v>
       </c>
-      <c r="C26" s="1">
-        <v>99545852</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>99545880</v>
       </c>
-      <c r="C27" s="1">
-        <v>99545880</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>99545883</v>
       </c>
-      <c r="C28" s="1">
-        <v>99545883</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>99545886</v>
       </c>
-      <c r="C29" s="1">
-        <v>99545886</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>99545934</v>
       </c>
-      <c r="C30" s="1">
-        <v>99545934</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>99545920</v>
       </c>
-      <c r="C31" s="1">
-        <v>99545920</v>
-      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>99545924</v>
       </c>
-      <c r="C32" s="1">
-        <v>99545924</v>
-      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>99545956</v>
       </c>
-      <c r="C33" s="1">
-        <v>99545956</v>
-      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>99545976</v>
       </c>
-      <c r="C34" s="1">
-        <v>99545976</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>99545968</v>
       </c>
-      <c r="C35" s="1">
-        <v>99545968</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>99453517</v>
       </c>
-      <c r="C36" s="1">
-        <v>99453517</v>
-      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>99545954</v>
       </c>
-      <c r="C37" s="1">
-        <v>99545954</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>99545950</v>
       </c>
-      <c r="C38" s="1">
-        <v>99545950</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>99453521</v>
       </c>
-      <c r="C39" s="1">
-        <v>99453521</v>
-      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>99545946</v>
       </c>
-      <c r="C40" s="1">
-        <v>99545946</v>
-      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>98496084</v>
       </c>
-      <c r="C41" s="1">
-        <v>98496084</v>
-      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>98487676</v>
       </c>
-      <c r="C42" s="1">
-        <v>98487676</v>
-      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>99939503</v>
       </c>
-      <c r="C43" s="1">
-        <v>99939503</v>
-      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>99939506</v>
       </c>
-      <c r="C44" s="1">
-        <v>99939506</v>
-      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>99939497</v>
       </c>
-      <c r="C45" s="1">
-        <v>99939497</v>
-      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>99939498</v>
       </c>
-      <c r="C46" s="1">
-        <v>99939498</v>
-      </c>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>99939499</v>
       </c>
-      <c r="C47" s="1">
-        <v>99939499</v>
-      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>99939495</v>
       </c>
-      <c r="C48" s="1">
-        <v>99939495</v>
-      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>99939496</v>
       </c>
-      <c r="C49" s="1">
-        <v>99939496</v>
-      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>99939493</v>
       </c>
-      <c r="C50" s="1">
-        <v>99939493</v>
-      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>98496076</v>
       </c>
-      <c r="C51" s="1">
-        <v>98496076</v>
-      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>99939504</v>
       </c>
-      <c r="C52" s="1">
-        <v>99939504</v>
-      </c>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>99939501</v>
       </c>
-      <c r="C53" s="1">
-        <v>99939501</v>
-      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>99939502</v>
       </c>
-      <c r="C54" s="1">
-        <v>99939502</v>
-      </c>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>98496079</v>
       </c>
-      <c r="C55" s="1">
-        <v>98496079</v>
-      </c>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>98487708</v>
       </c>
-      <c r="C56" s="1">
-        <v>98487708</v>
-      </c>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>98496107</v>
       </c>
-      <c r="C57" s="1">
-        <v>98496107</v>
-      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>99939494</v>
       </c>
-      <c r="C58" s="1">
-        <v>99939494</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>98853718</v>
       </c>
-      <c r="C59" s="1">
-        <v>98853718</v>
-      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>98853894</v>
       </c>
-      <c r="C60" s="1">
-        <v>98853894</v>
-      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
